--- a/references/TOC - Frontend_40Hrs.xlsx
+++ b/references/TOC - Frontend_40Hrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb680dacf78db5dc/Desktop/incedo/demo/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADF98C35-06D0-4021-BB9B-CBBCC643C74B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{ADF98C35-06D0-4021-BB9B-CBBCC643C74B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5B08FE4-F335-4658-82A8-5566F6E1460B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C135B4E-F5E6-44C2-B5F5-7FE0F28DC79A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1C135B4E-F5E6-44C2-B5F5-7FE0F28DC79A}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML_CSS_JS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>Topics</t>
   </si>
@@ -396,6 +396,12 @@
   <si>
     <t>Angular Training Course Outline
 (Duration 16Hrs)</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>project exercises</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -724,11 +730,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -883,6 +900,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BC2DCD-3002-43C3-BE19-802ADB47DA5C}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:B35"/>
     </sheetView>
   </sheetViews>
@@ -1649,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040123D6-CC30-4DBC-8535-D86E6AE47D6A}">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,6 +1814,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D2"/>
